--- a/Code/Results/Cases/Case_2_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.798934917238995</v>
+        <v>0.3167353711203305</v>
       </c>
       <c r="C2">
-        <v>0.09802769431865954</v>
+        <v>0.03293895998844221</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.333503768534662</v>
+        <v>0.1548485435524185</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>1.035845064488569</v>
+        <v>1.080532715444676</v>
       </c>
       <c r="H2">
-        <v>0.6928860147314566</v>
+        <v>1.057445531175318</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8019542611521899</v>
+        <v>0.272688238731206</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5704763282728109</v>
+        <v>0.2282456018431631</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6913600459211011</v>
+        <v>0.2869686923816914</v>
       </c>
       <c r="C3">
-        <v>0.08725700167570238</v>
+        <v>0.02958541580271401</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2894346917737565</v>
+        <v>0.1434574700996265</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.9794612559907847</v>
+        <v>1.06987239300706</v>
       </c>
       <c r="H3">
-        <v>0.6747715089896502</v>
+        <v>1.057168693926087</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.69450561954676</v>
+        <v>0.2421948206752802</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4928305062101614</v>
+        <v>0.2073230805264927</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6258503428475422</v>
+        <v>0.2688167699701864</v>
       </c>
       <c r="C4">
-        <v>0.08066507652452515</v>
+        <v>0.02751088255505607</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2628995706402293</v>
+        <v>0.1365594767331757</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.9469439059316187</v>
+        <v>1.063942892588656</v>
       </c>
       <c r="H4">
-        <v>0.6648153041527536</v>
+        <v>1.057448813117787</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6289957674495525</v>
+        <v>0.2235388789508335</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4457881750241768</v>
+        <v>0.1945872077282473</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5992694769442721</v>
+        <v>0.2614512282281964</v>
       </c>
       <c r="C5">
-        <v>0.07798193432886791</v>
+        <v>0.02666160096929104</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2522020883677882</v>
+        <v>0.1337724036674999</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.9341827297541556</v>
+        <v>1.061680795563191</v>
       </c>
       <c r="H5">
-        <v>0.661033688222318</v>
+        <v>1.05767593282954</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6023953297887346</v>
+        <v>0.2159533762494021</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4267554005862522</v>
+        <v>0.1894248345044502</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5948620860191909</v>
+        <v>0.2602300919915876</v>
       </c>
       <c r="C6">
-        <v>0.07753652684315426</v>
+        <v>0.02652034306984774</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2504323315041432</v>
+        <v>0.1333110489296345</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.932092248924576</v>
+        <v>1.061314471107565</v>
       </c>
       <c r="H6">
-        <v>0.6604219068708801</v>
+        <v>1.057720462733045</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5979835115972492</v>
+        <v>0.2146948347070747</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4236027134274991</v>
+        <v>0.1885692867944115</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.62549142604135</v>
+        <v>0.2687173079671652</v>
       </c>
       <c r="C7">
-        <v>0.08062888093213871</v>
+        <v>0.02749944461811538</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2627548519219474</v>
+        <v>0.1365217928112088</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.9467698700618996</v>
+        <v>1.063911761610228</v>
       </c>
       <c r="H7">
-        <v>0.6647632104453294</v>
+        <v>1.057451419014726</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6286366656491253</v>
+        <v>0.2234365095121831</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4455309637897642</v>
+        <v>0.1945174747041065</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7617173289870607</v>
+        <v>0.306445936546055</v>
       </c>
       <c r="C8">
-        <v>0.09430812709067027</v>
+        <v>0.03178585670561063</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3181902043775935</v>
+        <v>0.1509007757878891</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>1.015943377634287</v>
+        <v>1.076728780671274</v>
       </c>
       <c r="H8">
-        <v>0.6863871118596165</v>
+        <v>1.057256529979639</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.764796314087917</v>
+        <v>0.2621601994152343</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5435592078979639</v>
+        <v>0.2210084116627726</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.034208308330932</v>
+        <v>0.3814229654958297</v>
       </c>
       <c r="C9">
-        <v>0.1214140202669398</v>
+        <v>0.04006977794878708</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4318330555533976</v>
+        <v>0.1798746197312724</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.170169353909444</v>
+        <v>1.106783015149304</v>
       </c>
       <c r="H9">
-        <v>0.7389051725902362</v>
+        <v>1.060456253038112</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.036542249700091</v>
+        <v>0.3386314580823466</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7418813090446505</v>
+        <v>0.2738478596039045</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.239286354079098</v>
+        <v>0.4371191521956348</v>
       </c>
       <c r="C10">
-        <v>0.1416731577087234</v>
+        <v>0.04608349490267472</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5195327245468135</v>
+        <v>0.2016562735706842</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.297681736151247</v>
+        <v>1.131911703071353</v>
       </c>
       <c r="H10">
-        <v>0.7849630580802227</v>
+        <v>1.065006803016217</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.240702719560289</v>
+        <v>0.395148822629011</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8929424022552652</v>
+        <v>0.3132340816596511</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.334042034676941</v>
+        <v>0.4625911594059744</v>
       </c>
       <c r="C11">
-        <v>0.1510080274161112</v>
+        <v>0.04880396840401602</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5606430121790211</v>
+        <v>0.2116773934378031</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.359487460768861</v>
+        <v>1.14401582039585</v>
       </c>
       <c r="H11">
-        <v>0.8078628034018891</v>
+        <v>1.067558182488881</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.334962932895934</v>
+        <v>0.4209347687510956</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9632364496417836</v>
+        <v>0.3312796242979346</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.370171083151206</v>
+        <v>0.4722562530874086</v>
       </c>
       <c r="C12">
-        <v>0.1545640802122108</v>
+        <v>0.04983197765133696</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5764132311471926</v>
+        <v>0.2154886474821183</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.383504370354075</v>
+        <v>1.148696892808061</v>
       </c>
       <c r="H12">
-        <v>0.81684460251833</v>
+        <v>1.068593799491737</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.370893452484609</v>
+        <v>0.4307102067194535</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9901196862400994</v>
+        <v>0.3381318092960015</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.362378433593051</v>
+        <v>0.4701738409460461</v>
       </c>
       <c r="C13">
-        <v>0.1537972110753429</v>
+        <v>0.04961067403145591</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5730073425020805</v>
+        <v>0.2146670884176842</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.378303537142699</v>
+        <v>1.14768439177891</v>
       </c>
       <c r="H13">
-        <v>0.8148959046293385</v>
+        <v>1.068367667328658</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.36314403851577</v>
+        <v>0.42860440910178</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9843174945135686</v>
+        <v>0.3366552317309228</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.337009217988651</v>
+        <v>0.4633859242391907</v>
       </c>
       <c r="C14">
-        <v>0.1513001375389393</v>
+        <v>0.04888858687381514</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5619362055666883</v>
+        <v>0.2119906157758535</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.361450670094911</v>
+        <v>1.144398976658636</v>
       </c>
       <c r="H14">
-        <v>0.8085953419887346</v>
+        <v>1.06764198968969</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.337913999490667</v>
+        <v>0.4217387825749483</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9654426193778249</v>
+        <v>0.3318429809027137</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.32150317131601</v>
+        <v>0.4592306527138703</v>
       </c>
       <c r="C15">
-        <v>0.1497734887913822</v>
+        <v>0.04844600470183025</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5551820848313227</v>
+        <v>0.2103533529975437</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.351209632997666</v>
+        <v>1.14239928503477</v>
       </c>
       <c r="H15">
-        <v>0.8047774030222854</v>
+        <v>1.067206545092745</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.322491793430743</v>
+        <v>0.4175348007617856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9539168388744983</v>
+        <v>0.328897784767392</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.233126358360664</v>
+        <v>0.4354572159095369</v>
       </c>
       <c r="C16">
-        <v>0.1410658298685519</v>
+        <v>0.04590540062525861</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5168728408355179</v>
+        <v>0.2010036591536775</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.293724539920845</v>
+        <v>1.131134274970918</v>
       </c>
       <c r="H16">
-        <v>0.7835082020592949</v>
+        <v>1.064849771190751</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.234573557951364</v>
+        <v>0.3934651730410508</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8883833700415451</v>
+        <v>0.3120573705945802</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.179310024995914</v>
+        <v>0.4209076286605864</v>
       </c>
       <c r="C17">
-        <v>0.1357571515436717</v>
+        <v>0.04434293716276727</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4937015337447193</v>
+        <v>0.1952969543528766</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>1.259477413221134</v>
+        <v>1.124396438926453</v>
       </c>
       <c r="H17">
-        <v>0.7709795666341108</v>
+        <v>1.063527421901114</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.181018749380968</v>
+        <v>0.3787186375801639</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8486099460205523</v>
+        <v>0.3017594199089544</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.148491760525388</v>
+        <v>0.4125518530815384</v>
       </c>
       <c r="C18">
-        <v>0.1327146629399181</v>
+        <v>0.04344281848365483</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4804865590102239</v>
+        <v>0.1920251836303919</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.240132690459859</v>
+        <v>1.120584311144469</v>
       </c>
       <c r="H18">
-        <v>0.7639547900322157</v>
+        <v>1.062812129685369</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.150343535189847</v>
+        <v>0.3702439688237007</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.825879137956484</v>
+        <v>0.29584839625808</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.138079438551102</v>
+        <v>0.4097249258378213</v>
       </c>
       <c r="C19">
-        <v>0.1316862885531549</v>
+        <v>0.04313780768598008</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4760307244081545</v>
+        <v>0.1909192257058834</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>1.233641677607039</v>
+        <v>1.119304439126608</v>
       </c>
       <c r="H19">
-        <v>0.761606603200903</v>
+        <v>1.062577714622535</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.139978373409747</v>
+        <v>0.3673758211438098</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8182068316844564</v>
+        <v>0.2938490934801905</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.185024592329057</v>
+        <v>0.4224551369059384</v>
       </c>
       <c r="C20">
-        <v>0.1363211110774643</v>
+        <v>0.04450941209999826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4961563181388371</v>
+        <v>0.1959033462565927</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.263086053995693</v>
+        <v>1.125107136705537</v>
       </c>
       <c r="H20">
-        <v>0.772294282672334</v>
+        <v>1.063663499254005</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.1867062379348</v>
+        <v>0.3802876920470908</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8528285423314088</v>
+        <v>0.302854401811814</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.344453755057344</v>
+        <v>0.4653791741896214</v>
       </c>
       <c r="C21">
-        <v>0.1520329803167613</v>
+        <v>0.04910074031968747</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5651823295731262</v>
+        <v>0.2127763112567465</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>1.366383584710519</v>
+        <v>1.145361330567397</v>
       </c>
       <c r="H21">
-        <v>0.8104372971544649</v>
+        <v>1.067853251523474</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.345317949949475</v>
+        <v>0.4237550892049171</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9709791300702832</v>
+        <v>0.3332559453444688</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.450110094438372</v>
+        <v>0.4935455370996635</v>
       </c>
       <c r="C22">
-        <v>0.1624270345918859</v>
+        <v>0.05208876626753067</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6114912226427975</v>
+        <v>0.2238999255682756</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.437499856146104</v>
+        <v>1.159167297980048</v>
       </c>
       <c r="H22">
-        <v>0.837190090618094</v>
+        <v>1.070996509829598</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.450376696547124</v>
+        <v>0.452226822546038</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.049759117982724</v>
+        <v>0.3532343977230425</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.3935726537959</v>
+        <v>0.4785023067315137</v>
       </c>
       <c r="C23">
-        <v>0.1568665956496886</v>
+        <v>0.05049515655184678</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5866557864169692</v>
+        <v>0.2179541483003931</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.399190241182112</v>
+        <v>1.151746515621568</v>
       </c>
       <c r="H23">
-        <v>0.8227339478166584</v>
+        <v>1.069281751210042</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.394163864273395</v>
+        <v>0.4370251501899531</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.007556266811761</v>
+        <v>0.3425614405411324</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.182440660823318</v>
+        <v>0.4217554804644408</v>
       </c>
       <c r="C24">
-        <v>0.1360661155531915</v>
+        <v>0.04443415450617749</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4950461804029658</v>
+        <v>0.1956291681899316</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.26145351965971</v>
+        <v>1.124785638583205</v>
       </c>
       <c r="H24">
-        <v>0.771699347036332</v>
+        <v>1.06360183869262</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.184134571517433</v>
+        <v>0.3795783122087641</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8509208958107806</v>
+        <v>0.3023593312212114</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9597611584688082</v>
+        <v>0.3610329390560025</v>
       </c>
       <c r="C25">
-        <v>0.114034249625476</v>
+        <v>0.03784161320318447</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4004446179905443</v>
+        <v>0.17195110484559</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>1.126176756289652</v>
+        <v>1.098120813627418</v>
       </c>
       <c r="H25">
-        <v>0.723487011595779</v>
+        <v>1.059205515511948</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9623622194201857</v>
+        <v>0.31788592971958</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6874178229553678</v>
+        <v>0.2594557576664087</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3167353711203305</v>
+        <v>0.7989349172390519</v>
       </c>
       <c r="C2">
-        <v>0.03293895998844221</v>
+        <v>0.09802769431878744</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1548485435524185</v>
+        <v>0.3335037685346549</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.080532715444676</v>
+        <v>1.035845064488541</v>
       </c>
       <c r="H2">
-        <v>1.057445531175318</v>
+        <v>0.6928860147313145</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.272688238731206</v>
+        <v>0.8019542611521331</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2282456018431631</v>
+        <v>0.5704763282728251</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2869686923816914</v>
+        <v>0.6913600459211864</v>
       </c>
       <c r="C3">
-        <v>0.02958541580271401</v>
+        <v>0.08725700167544659</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1434574700996265</v>
+        <v>0.2894346917737565</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.06987239300706</v>
+        <v>0.9794612559908416</v>
       </c>
       <c r="H3">
-        <v>1.057168693926087</v>
+        <v>0.6747715089897355</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2421948206752802</v>
+        <v>0.6945056195468169</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2073230805264927</v>
+        <v>0.4928305062101543</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2688167699701864</v>
+        <v>0.6258503428475422</v>
       </c>
       <c r="C4">
-        <v>0.02751088255505607</v>
+        <v>0.08066507652475963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1365594767331757</v>
+        <v>0.262899570640279</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.063942892588656</v>
+        <v>0.9469439059316471</v>
       </c>
       <c r="H4">
-        <v>1.057448813117787</v>
+        <v>0.6648153041527678</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2235388789508335</v>
+        <v>0.6289957674495383</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1945872077282473</v>
+        <v>0.445788175024191</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2614512282281964</v>
+        <v>0.5992694769442153</v>
       </c>
       <c r="C5">
-        <v>0.02666160096929104</v>
+        <v>0.0779819343288608</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1337724036674999</v>
+        <v>0.2522020883678024</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.061680795563191</v>
+        <v>0.9341827297542125</v>
       </c>
       <c r="H5">
-        <v>1.05767593282954</v>
+        <v>0.661033688222318</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2159533762494021</v>
+        <v>0.6023953297887346</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1894248345044502</v>
+        <v>0.4267554005862593</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2602300919915876</v>
+        <v>0.5948620860192193</v>
       </c>
       <c r="C6">
-        <v>0.02652034306984774</v>
+        <v>0.07753652684292689</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1333110489296345</v>
+        <v>0.2504323315041219</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.061314471107565</v>
+        <v>0.9320922489246186</v>
       </c>
       <c r="H6">
-        <v>1.057720462733045</v>
+        <v>0.6604219068707664</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2146948347070747</v>
+        <v>0.5979835115972065</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1885692867944115</v>
+        <v>0.4236027134274991</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2687173079671652</v>
+        <v>0.6254914260414921</v>
       </c>
       <c r="C7">
-        <v>0.02749944461811538</v>
+        <v>0.0806288809325082</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1365217928112088</v>
+        <v>0.2627548519219332</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.063911761610228</v>
+        <v>0.9467698700619707</v>
       </c>
       <c r="H7">
-        <v>1.057451419014726</v>
+        <v>0.6647632104452299</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2234365095121831</v>
+        <v>0.6286366656491111</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1945174747041065</v>
+        <v>0.4455309637897642</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.306445936546055</v>
+        <v>0.7617173289870891</v>
       </c>
       <c r="C8">
-        <v>0.03178585670561063</v>
+        <v>0.09430812709089764</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1509007757878891</v>
+        <v>0.3181902043775793</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.076728780671274</v>
+        <v>1.015943377634215</v>
       </c>
       <c r="H8">
-        <v>1.057256529979639</v>
+        <v>0.6863871118594744</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2621601994152343</v>
+        <v>0.7647963140878176</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2210084116627726</v>
+        <v>0.5435592078979425</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3814229654958297</v>
+        <v>1.034208308330875</v>
       </c>
       <c r="C9">
-        <v>0.04006977794878708</v>
+        <v>0.1214140202667977</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1798746197312724</v>
+        <v>0.4318330555533976</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.106783015149304</v>
+        <v>1.1701693539095</v>
       </c>
       <c r="H9">
-        <v>1.060456253038112</v>
+        <v>0.7389051725902505</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3386314580823466</v>
+        <v>1.036542249700005</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2738478596039045</v>
+        <v>0.7418813090446577</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4371191521956348</v>
+        <v>1.239286354079098</v>
       </c>
       <c r="C10">
-        <v>0.04608349490267472</v>
+        <v>0.1416731577088939</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2016562735706842</v>
+        <v>0.5195327245468135</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.131911703071353</v>
+        <v>1.297681736151361</v>
       </c>
       <c r="H10">
-        <v>1.065006803016217</v>
+        <v>0.7849630580802227</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.395148822629011</v>
+        <v>1.240702719560289</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3132340816596511</v>
+        <v>0.8929424022552581</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4625911594059744</v>
+        <v>1.334042034676884</v>
       </c>
       <c r="C11">
-        <v>0.04880396840401602</v>
+        <v>0.1510080274164096</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2116773934378031</v>
+        <v>0.5606430121790282</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.14401582039585</v>
+        <v>1.359487460768889</v>
       </c>
       <c r="H11">
-        <v>1.067558182488881</v>
+        <v>0.8078628034018607</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4209347687510956</v>
+        <v>1.334962932895877</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3312796242979346</v>
+        <v>0.9632364496417765</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4722562530874086</v>
+        <v>1.370171083151234</v>
       </c>
       <c r="C12">
-        <v>0.04983197765133696</v>
+        <v>0.1545640802123529</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2154886474821183</v>
+        <v>0.576413231147221</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.148696892808061</v>
+        <v>1.383504370354103</v>
       </c>
       <c r="H12">
-        <v>1.068593799491737</v>
+        <v>0.8168446025184437</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4307102067194535</v>
+        <v>1.370893452484665</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3381318092960015</v>
+        <v>0.9901196862400923</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4701738409460461</v>
+        <v>1.362378433593079</v>
       </c>
       <c r="C13">
-        <v>0.04961067403145591</v>
+        <v>0.1537972110753429</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2146670884176842</v>
+        <v>0.5730073425020805</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.14768439177891</v>
+        <v>1.378303537142671</v>
       </c>
       <c r="H13">
-        <v>1.068367667328658</v>
+        <v>0.8148959046293385</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.42860440910178</v>
+        <v>1.363144038515713</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3366552317309228</v>
+        <v>0.9843174945135829</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4633859242391907</v>
+        <v>1.337009217988481</v>
       </c>
       <c r="C14">
-        <v>0.04888858687381514</v>
+        <v>0.1513001375388683</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2119906157758535</v>
+        <v>0.561936205566667</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.144398976658636</v>
+        <v>1.361450670094939</v>
       </c>
       <c r="H14">
-        <v>1.06764198968969</v>
+        <v>0.8085953419887346</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4217387825749483</v>
+        <v>1.33791399949061</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3318429809027137</v>
+        <v>0.9654426193778178</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4592306527138703</v>
+        <v>1.321503171315982</v>
       </c>
       <c r="C15">
-        <v>0.04844600470183025</v>
+        <v>0.1497734887912685</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2103533529975437</v>
+        <v>0.5551820848313227</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.14239928503477</v>
+        <v>1.351209632997637</v>
       </c>
       <c r="H15">
-        <v>1.067206545092745</v>
+        <v>0.8047774030221717</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4175348007617856</v>
+        <v>1.3224917934308</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.328897784767392</v>
+        <v>0.9539168388744841</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4354572159095369</v>
+        <v>1.233126358360721</v>
       </c>
       <c r="C16">
-        <v>0.04590540062525861</v>
+        <v>0.1410658298685377</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2010036591536775</v>
+        <v>0.5168728408354966</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.131134274970918</v>
+        <v>1.293724539920845</v>
       </c>
       <c r="H16">
-        <v>1.064849771190751</v>
+        <v>0.7835082020592097</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3934651730410508</v>
+        <v>1.234573557951222</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3120573705945802</v>
+        <v>0.8883833700415593</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4209076286605864</v>
+        <v>1.179310024995914</v>
       </c>
       <c r="C17">
-        <v>0.04434293716276727</v>
+        <v>0.1357571515435438</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1952969543528766</v>
+        <v>0.4937015337447406</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.124396438926453</v>
+        <v>1.259477413221106</v>
       </c>
       <c r="H17">
-        <v>1.063527421901114</v>
+        <v>0.7709795666341108</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3787186375801639</v>
+        <v>1.181018749380968</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3017594199089544</v>
+        <v>0.8486099460205381</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4125518530815384</v>
+        <v>1.148491760525417</v>
       </c>
       <c r="C18">
-        <v>0.04344281848365483</v>
+        <v>0.132714662940046</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1920251836303919</v>
+        <v>0.4804865590101954</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.120584311144469</v>
+        <v>1.240132690459802</v>
       </c>
       <c r="H18">
-        <v>1.062812129685369</v>
+        <v>0.7639547900322157</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3702439688237007</v>
+        <v>1.150343535189791</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.29584839625808</v>
+        <v>0.8258791379564769</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4097249258378213</v>
+        <v>1.138079438551131</v>
       </c>
       <c r="C19">
-        <v>0.04313780768598008</v>
+        <v>0.1316862885532117</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1909192257058834</v>
+        <v>0.4760307244081545</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.119304439126608</v>
+        <v>1.233641677607039</v>
       </c>
       <c r="H19">
-        <v>1.062577714622535</v>
+        <v>0.7616066032008746</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3673758211438098</v>
+        <v>1.13997837340969</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2938490934801905</v>
+        <v>0.8182068316844635</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4224551369059384</v>
+        <v>1.185024592329086</v>
       </c>
       <c r="C20">
-        <v>0.04450941209999826</v>
+        <v>0.136321111077379</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1959033462565927</v>
+        <v>0.4961563181388087</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.125107136705537</v>
+        <v>1.263086053995778</v>
       </c>
       <c r="H20">
-        <v>1.063663499254005</v>
+        <v>0.772294282672334</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3802876920470908</v>
+        <v>1.1867062379348</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.302854401811814</v>
+        <v>0.8528285423314088</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4653791741896214</v>
+        <v>1.344453755057202</v>
       </c>
       <c r="C21">
-        <v>0.04910074031968747</v>
+        <v>0.1520329803170171</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2127763112567465</v>
+        <v>0.5651823295730907</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.145361330567397</v>
+        <v>1.366383584710519</v>
       </c>
       <c r="H21">
-        <v>1.067853251523474</v>
+        <v>0.8104372971545217</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4237550892049171</v>
+        <v>1.345317949949418</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3332559453444688</v>
+        <v>0.9709791300702975</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4935455370996635</v>
+        <v>1.450110094438344</v>
       </c>
       <c r="C22">
-        <v>0.05208876626753067</v>
+        <v>0.162427034591758</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2238999255682756</v>
+        <v>0.6114912226427549</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.159167297980048</v>
+        <v>1.437499856146246</v>
       </c>
       <c r="H22">
-        <v>1.070996509829598</v>
+        <v>0.8371900906180088</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.452226822546038</v>
+        <v>1.450376696547067</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3532343977230425</v>
+        <v>1.049759117982738</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4785023067315137</v>
+        <v>1.393572653795871</v>
       </c>
       <c r="C23">
-        <v>0.05049515655184678</v>
+        <v>0.1568665956494613</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2179541483003931</v>
+        <v>0.5866557864170261</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.151746515621568</v>
+        <v>1.399190241182168</v>
       </c>
       <c r="H23">
-        <v>1.069281751210042</v>
+        <v>0.8227339478166584</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4370251501899531</v>
+        <v>1.394163864273509</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3425614405411324</v>
+        <v>1.007556266811783</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4217554804644408</v>
+        <v>1.182440660823119</v>
       </c>
       <c r="C24">
-        <v>0.04443415450617749</v>
+        <v>0.1360661155532341</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1956291681899316</v>
+        <v>0.4950461804029658</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.124785638583205</v>
+        <v>1.261453519659824</v>
       </c>
       <c r="H24">
-        <v>1.06360183869262</v>
+        <v>0.7716993470364741</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3795783122087641</v>
+        <v>1.184134571517319</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3023593312212114</v>
+        <v>0.8509208958107877</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3610329390560025</v>
+        <v>0.9597611584689787</v>
       </c>
       <c r="C25">
-        <v>0.03784161320318447</v>
+        <v>0.114034249625476</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.17195110484559</v>
+        <v>0.4004446179905656</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.098120813627418</v>
+        <v>1.126176756289652</v>
       </c>
       <c r="H25">
-        <v>1.059205515511948</v>
+        <v>0.7234870115956511</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.31788592971958</v>
+        <v>0.9623622194201857</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2594557576664087</v>
+        <v>0.6874178229553394</v>
       </c>
       <c r="N25">
         <v>0</v>
